--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="197">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,157 +55,157 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>security</t>
   </si>
   <si>
     <t>care</t>
@@ -970,10 +970,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1052,7 +1052,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>98</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>383</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0.967741935483871</v>
@@ -1252,7 +1252,7 @@
         <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>0.9482758620689655</v>
@@ -1281,28 +1281,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1085271317829457</v>
+        <v>0.01468926553672316</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>225</v>
+        <v>399</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F8">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>115</v>
+        <v>1744</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>0.9444444444444444</v>
@@ -1331,28 +1331,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01468926553672316</v>
+        <v>0.01261467889908257</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>399</v>
+        <v>524</v>
       </c>
       <c r="E9">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1744</v>
+        <v>2583</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1381,28 +1381,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01261467889908257</v>
+        <v>0.005332385353714895</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>524</v>
+        <v>403</v>
       </c>
       <c r="E10">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F10">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>2583</v>
+        <v>2798</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>0.9333333333333333</v>
@@ -1427,32 +1427,8 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.005332385353714895</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>403</v>
-      </c>
-      <c r="E11">
-        <v>0.96</v>
-      </c>
-      <c r="F11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2798</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>0.9090909090909091</v>
@@ -1478,7 +1454,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>0.8898305084745762</v>
@@ -1504,7 +1480,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>0.8888888888888888</v>
@@ -1530,7 +1506,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>0.8740157480314961</v>
@@ -1556,7 +1532,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>0.8715596330275229</v>
@@ -1582,7 +1558,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>0.8666666666666667</v>
@@ -1608,7 +1584,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
         <v>0.8666666666666667</v>
@@ -1634,7 +1610,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
         <v>0.8666666666666667</v>
@@ -1660,7 +1636,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
         <v>0.8518518518518519</v>
@@ -1686,7 +1662,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
         <v>0.85</v>
@@ -1712,7 +1688,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
         <v>0.8421052631578947</v>
@@ -1738,7 +1714,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
         <v>0.84</v>
@@ -1764,7 +1740,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.8297872340425532</v>
@@ -1790,7 +1766,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
         <v>0.8297872340425532</v>
@@ -1816,7 +1792,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>0.8253968253968254</v>
@@ -1842,7 +1818,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>0.7941176470588235</v>
@@ -1868,7 +1844,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>0.7857142857142857</v>
@@ -1894,7 +1870,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>0.7826086956521739</v>
@@ -1920,7 +1896,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>0.7777777777777778</v>
@@ -1946,7 +1922,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>0.7756410256410257</v>
@@ -1972,7 +1948,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>0.7727272727272727</v>
@@ -1998,7 +1974,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>0.7692307692307693</v>
@@ -2024,111 +2000,111 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.7543859649122807</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.7317073170731707</v>
+        <v>0.73</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.73</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L36">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="M36">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N36">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>0.7111111111111111</v>
@@ -2154,7 +2130,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
         <v>0.7058823529411765</v>
@@ -2180,7 +2156,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>0.6956521739130435</v>
@@ -2206,7 +2182,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>0.6923076923076923</v>
@@ -2232,7 +2208,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>0.6825396825396826</v>
@@ -2258,7 +2234,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>0.6818181818181818</v>
@@ -2284,7 +2260,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43">
         <v>0.6567164179104478</v>
@@ -2310,28 +2286,28 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.647239263803681</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L44">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2339,25 +2315,25 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.6470588235294118</v>
+        <v>0.640625</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2365,25 +2341,25 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.640625</v>
+        <v>0.6385964912280702</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2391,13 +2367,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.6385964912280702</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L47">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>0.95</v>
@@ -2409,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2417,25 +2393,25 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.6333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2443,25 +2419,25 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.625</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="N49">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -5066,7 +5042,7 @@
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K150">
         <v>0.1761927255550307</v>
@@ -5222,7 +5198,7 @@
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K156">
         <v>0.1597267404033832</v>
@@ -5664,7 +5640,7 @@
     </row>
     <row r="173" spans="10:17">
       <c r="J173" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K173">
         <v>0.1217827997489014</v>
